--- a/view/excel/up_summer_pay.xlsx
+++ b/view/excel/up_summer_pay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF31171-6D94-4816-9DA0-BA31F97EBCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69BD82-825A-4A82-8444-FABE8096333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="708" windowWidth="20460" windowHeight="10584" xr2:uid="{4B63C747-D12D-45F2-914C-693E9E055D69}"/>
+    <workbookView xWindow="1488" yWindow="744" windowWidth="17856" windowHeight="11496" xr2:uid="{4B63C747-D12D-45F2-914C-693E9E055D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>SP_Key</t>
-  </si>
-  <si>
-    <t>SP_Year</t>
-  </si>
-  <si>
-    <t>SP_Class</t>
-  </si>
-  <si>
-    <t>ม.4</t>
   </si>
 </sst>
 </file>
@@ -433,301 +424,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD2932F-BD21-41B1-BC70-4A39A0791D85}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="2">
         <v>11111</v>
       </c>
-      <c r="B2" s="2">
-        <v>2565</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="6"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
